--- a/UW_CN SI data_AllSpecies.xlsx
+++ b/UW_CN SI data_AllSpecies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\CareyA\PSEMP\GitHub\JuvChinook-2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\CareyA\PSEMP\GitHub\JuvChinook-2016\JuvChinook-Data-merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>13AI-TW02a</t>
   </si>
   <si>
-    <t>2013 Juvenile Chinook</t>
-  </si>
-  <si>
     <t>13AI-TW03a</t>
   </si>
   <si>
@@ -689,9 +686,6 @@
     <t>16DK-TW_Dfp01</t>
   </si>
   <si>
-    <t xml:space="preserve">2016 Juvenile Chinook </t>
-  </si>
-  <si>
     <t>16DK-TW_Dp01r1</t>
   </si>
   <si>
@@ -818,9 +812,6 @@
     <t>16MA10-TM9866C</t>
   </si>
   <si>
-    <t>2016 Blackmouth</t>
-  </si>
-  <si>
     <t>16MA10-TM9867C</t>
   </si>
   <si>
@@ -1773,6 +1764,15 @@
   </si>
   <si>
     <t>d13C_Precision</t>
+  </si>
+  <si>
+    <t>2013_Juvenile_Chinook</t>
+  </si>
+  <si>
+    <t>2016_Blackmouth</t>
+  </si>
+  <si>
+    <t>2016_Juvenile_Chinook</t>
   </si>
 </sst>
 </file>
@@ -2092,14 +2092,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
@@ -2121,67 +2123,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L1" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1" t="s">
         <v>569</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>570</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>571</v>
+      </c>
+      <c r="P1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>573</v>
+      </c>
+      <c r="R1" t="s">
+        <v>576</v>
+      </c>
+      <c r="S1" t="s">
         <v>577</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>578</v>
       </c>
-      <c r="L1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M1" t="s">
-        <v>572</v>
-      </c>
-      <c r="N1" t="s">
-        <v>573</v>
-      </c>
-      <c r="O1" t="s">
-        <v>574</v>
-      </c>
-      <c r="P1" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>576</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>579</v>
-      </c>
-      <c r="S1" t="s">
-        <v>580</v>
-      </c>
-      <c r="T1" t="s">
-        <v>581</v>
-      </c>
-      <c r="U1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2195,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E2">
         <v>87038</v>
@@ -2254,10 +2256,10 @@
         <v>20170518</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E3">
         <v>87039</v>
@@ -2316,10 +2318,10 @@
         <v>20170518</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E4">
         <v>87014</v>
@@ -2378,10 +2380,10 @@
         <v>20170518</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E5">
         <v>87015</v>
@@ -2440,10 +2442,10 @@
         <v>20170517</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E6">
         <v>86993</v>
@@ -2502,10 +2504,10 @@
         <v>20170518</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E7">
         <v>87016</v>
@@ -2564,10 +2566,10 @@
         <v>20170518</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E8">
         <v>87017</v>
@@ -2626,10 +2628,10 @@
         <v>20170518</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E9">
         <v>87018</v>
@@ -2688,10 +2690,10 @@
         <v>20170518</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E10">
         <v>87019</v>
@@ -2750,10 +2752,10 @@
         <v>20170518</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E11">
         <v>87020</v>
@@ -2812,10 +2814,10 @@
         <v>20170518</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E12">
         <v>87021</v>
@@ -2874,10 +2876,10 @@
         <v>20170518</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E13">
         <v>87025</v>
@@ -2936,10 +2938,10 @@
         <v>20170518</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E14">
         <v>87026</v>
@@ -2998,10 +3000,10 @@
         <v>20170518</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E15">
         <v>87027</v>
@@ -3060,10 +3062,10 @@
         <v>20170518</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E16">
         <v>87028</v>
@@ -3122,10 +3124,10 @@
         <v>20170518</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E17">
         <v>87029</v>
@@ -3184,10 +3186,10 @@
         <v>20170518</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E18">
         <v>87030</v>
@@ -3246,10 +3248,10 @@
         <v>20170518</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E19">
         <v>87031</v>
@@ -3308,10 +3310,10 @@
         <v>20170518</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E20">
         <v>87035</v>
@@ -3370,10 +3372,10 @@
         <v>20170518</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E21">
         <v>87036</v>
@@ -3432,10 +3434,10 @@
         <v>20170518</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E22">
         <v>87037</v>
@@ -3494,10 +3496,10 @@
         <v>20170519</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E23">
         <v>87067</v>
@@ -3556,10 +3558,10 @@
         <v>20170519</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E24">
         <v>87068</v>
@@ -3618,10 +3620,10 @@
         <v>20170519</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E25">
         <v>87069</v>
@@ -3680,10 +3682,10 @@
         <v>20170519</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E26">
         <v>87070</v>
@@ -3742,10 +3744,10 @@
         <v>20170410</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E27">
         <v>85912</v>
@@ -3804,10 +3806,10 @@
         <v>20170519</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E28">
         <v>87071</v>
@@ -3866,10 +3868,10 @@
         <v>20170519</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E29">
         <v>87072</v>
@@ -3928,10 +3930,10 @@
         <v>20170519</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E30">
         <v>87073</v>
@@ -3990,10 +3992,10 @@
         <v>20170519</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E31">
         <v>87077</v>
@@ -4052,10 +4054,10 @@
         <v>20170518</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E32">
         <v>87051</v>
@@ -4114,10 +4116,10 @@
         <v>20170518</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E33">
         <v>87052</v>
@@ -4176,10 +4178,10 @@
         <v>20170519</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E34">
         <v>87066</v>
@@ -4238,10 +4240,10 @@
         <v>20170410</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E35">
         <v>85911</v>
@@ -4300,10 +4302,10 @@
         <v>20170522</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E36">
         <v>87242</v>
@@ -4362,10 +4364,10 @@
         <v>20170522</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E37">
         <v>87243</v>
@@ -4424,10 +4426,10 @@
         <v>20170522</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E38">
         <v>87247</v>
@@ -4486,10 +4488,10 @@
         <v>20170522</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E39">
         <v>87248</v>
@@ -4548,10 +4550,10 @@
         <v>20170522</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E40">
         <v>87249</v>
@@ -4610,10 +4612,10 @@
         <v>20170522</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E41">
         <v>87250</v>
@@ -4672,10 +4674,10 @@
         <v>20170522</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E42">
         <v>87251</v>
@@ -4734,10 +4736,10 @@
         <v>20170522</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E43">
         <v>87252</v>
@@ -4796,10 +4798,10 @@
         <v>20170411</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E44">
         <v>85933</v>
@@ -4858,10 +4860,10 @@
         <v>20170519</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E45">
         <v>87081</v>
@@ -4920,10 +4922,10 @@
         <v>20170519</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E46">
         <v>87082</v>
@@ -4982,10 +4984,10 @@
         <v>20170519</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E47">
         <v>87083</v>
@@ -5044,10 +5046,10 @@
         <v>20170410</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E48">
         <v>85913</v>
@@ -5106,10 +5108,10 @@
         <v>20170519</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E49">
         <v>87087</v>
@@ -5168,10 +5170,10 @@
         <v>20170519</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E50">
         <v>87088</v>
@@ -5230,10 +5232,10 @@
         <v>20170410</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E51">
         <v>85914</v>
@@ -5292,10 +5294,10 @@
         <v>20170519</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E52">
         <v>87089</v>
@@ -5354,10 +5356,10 @@
         <v>20170519</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E53">
         <v>87090</v>
@@ -5416,10 +5418,10 @@
         <v>20170519</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E54">
         <v>87091</v>
@@ -5478,10 +5480,10 @@
         <v>20170519</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E55">
         <v>87078</v>
@@ -5540,10 +5542,10 @@
         <v>20170519</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E56">
         <v>87079</v>
@@ -5602,10 +5604,10 @@
         <v>20170519</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E57">
         <v>87080</v>
@@ -5664,10 +5666,10 @@
         <v>20170519</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E58">
         <v>87103</v>
@@ -5726,10 +5728,10 @@
         <v>20170411</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E59">
         <v>85931</v>
@@ -5788,10 +5790,10 @@
         <v>20170519</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E60">
         <v>87104</v>
@@ -5850,10 +5852,10 @@
         <v>20170522</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E61">
         <v>87236</v>
@@ -5912,10 +5914,10 @@
         <v>20170522</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E62">
         <v>87237</v>
@@ -5974,10 +5976,10 @@
         <v>20170522</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E63">
         <v>87238</v>
@@ -6036,10 +6038,10 @@
         <v>20170522</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E64">
         <v>87239</v>
@@ -6098,10 +6100,10 @@
         <v>20170411</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E65">
         <v>85932</v>
@@ -6160,10 +6162,10 @@
         <v>20170522</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E66">
         <v>87240</v>
@@ -6222,10 +6224,10 @@
         <v>20170522</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E67">
         <v>87241</v>
@@ -6284,10 +6286,10 @@
         <v>20170411</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E68">
         <v>85930</v>
@@ -6346,10 +6348,10 @@
         <v>20170411</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E69">
         <v>85928</v>
@@ -6408,10 +6410,10 @@
         <v>20170519</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E70">
         <v>87092</v>
@@ -6470,10 +6472,10 @@
         <v>20170519</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E71">
         <v>87093</v>
@@ -6532,10 +6534,10 @@
         <v>20170519</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E72">
         <v>87097</v>
@@ -6594,10 +6596,10 @@
         <v>20170519</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E73">
         <v>87098</v>
@@ -6656,10 +6658,10 @@
         <v>20170519</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E74">
         <v>87099</v>
@@ -6718,10 +6720,10 @@
         <v>20170519</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E75">
         <v>87100</v>
@@ -6780,10 +6782,10 @@
         <v>20170519</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E76">
         <v>87101</v>
@@ -6842,10 +6844,10 @@
         <v>20170411</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E77">
         <v>85929</v>
@@ -6904,10 +6906,10 @@
         <v>20170519</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E78">
         <v>87102</v>
@@ -6966,10 +6968,10 @@
         <v>20170518</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E79">
         <v>87040</v>
@@ -7028,10 +7030,10 @@
         <v>20170518</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E80">
         <v>87041</v>
@@ -7090,10 +7092,10 @@
         <v>20170518</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E81">
         <v>87045</v>
@@ -7152,10 +7154,10 @@
         <v>20170518</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E82">
         <v>87046</v>
@@ -7214,10 +7216,10 @@
         <v>20170518</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E83">
         <v>87047</v>
@@ -7276,10 +7278,10 @@
         <v>20170518</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E84">
         <v>87048</v>
@@ -7338,10 +7340,10 @@
         <v>20170517</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E85">
         <v>86989</v>
@@ -7400,10 +7402,10 @@
         <v>20170518</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E86">
         <v>87049</v>
@@ -7462,10 +7464,10 @@
         <v>20170518</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E87">
         <v>87050</v>
@@ -7524,10 +7526,10 @@
         <v>20170320</v>
       </c>
       <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
         <v>89</v>
-      </c>
-      <c r="D88" t="s">
-        <v>90</v>
       </c>
       <c r="E88">
         <v>85528</v>
@@ -7586,10 +7588,10 @@
         <v>20170320</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E89">
         <v>85529</v>
@@ -7648,10 +7650,10 @@
         <v>20170320</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90">
         <v>85530</v>
@@ -7710,10 +7712,10 @@
         <v>20170320</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91">
         <v>85531</v>
@@ -7772,10 +7774,10 @@
         <v>20170320</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E92">
         <v>85532</v>
@@ -7834,10 +7836,10 @@
         <v>20170320</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E93">
         <v>85536</v>
@@ -7896,10 +7898,10 @@
         <v>20170320</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E94">
         <v>85537</v>
@@ -7958,10 +7960,10 @@
         <v>20170320</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E95">
         <v>85538</v>
@@ -8020,10 +8022,10 @@
         <v>20170320</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E96">
         <v>85539</v>
@@ -8082,10 +8084,10 @@
         <v>20170320</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E97">
         <v>85540</v>
@@ -8144,10 +8146,10 @@
         <v>20170327</v>
       </c>
       <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
         <v>100</v>
-      </c>
-      <c r="D98" t="s">
-        <v>101</v>
       </c>
       <c r="E98">
         <v>85706</v>
@@ -8206,10 +8208,10 @@
         <v>20170327</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E99">
         <v>85707</v>
@@ -8268,10 +8270,10 @@
         <v>20170327</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>85708</v>
@@ -8330,10 +8332,10 @@
         <v>20170522</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101">
         <v>87262</v>
@@ -8392,10 +8394,10 @@
         <v>20170522</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102">
         <v>87263</v>
@@ -8454,10 +8456,10 @@
         <v>20170522</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103">
         <v>87267</v>
@@ -8516,10 +8518,10 @@
         <v>20170522</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104">
         <v>87268</v>
@@ -8578,10 +8580,10 @@
         <v>20170327</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E105">
         <v>85703</v>
@@ -8640,10 +8642,10 @@
         <v>20170327</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E106">
         <v>85704</v>
@@ -8702,10 +8704,10 @@
         <v>20170327</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E107">
         <v>85705</v>
@@ -8764,10 +8766,10 @@
         <v>20170517</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E108">
         <v>86962</v>
@@ -8826,10 +8828,10 @@
         <v>20170517</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E109">
         <v>86963</v>
@@ -8888,10 +8890,10 @@
         <v>20170517</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E110">
         <v>86964</v>
@@ -8950,10 +8952,10 @@
         <v>20170329</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111">
         <v>85725</v>
@@ -9012,10 +9014,10 @@
         <v>20170329</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E112">
         <v>85726</v>
@@ -9074,10 +9076,10 @@
         <v>20170329</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E113">
         <v>85727</v>
@@ -9136,10 +9138,10 @@
         <v>20170329</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E114">
         <v>85728</v>
@@ -9198,10 +9200,10 @@
         <v>20170329</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E115">
         <v>85729</v>
@@ -9260,10 +9262,10 @@
         <v>20170329</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E116">
         <v>85730</v>
@@ -9322,10 +9324,10 @@
         <v>20170329</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E117">
         <v>85734</v>
@@ -9384,10 +9386,10 @@
         <v>20170327</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E118">
         <v>85709</v>
@@ -9446,10 +9448,10 @@
         <v>20170329</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E119">
         <v>85723</v>
@@ -9508,10 +9510,10 @@
         <v>20170329</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E120">
         <v>85724</v>
@@ -9570,10 +9572,10 @@
         <v>20170517</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E121">
         <v>86976</v>
@@ -9632,10 +9634,10 @@
         <v>20170517</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E122">
         <v>86977</v>
@@ -9694,10 +9696,10 @@
         <v>20170517</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E123">
         <v>86978</v>
@@ -9756,10 +9758,10 @@
         <v>20170517</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E124">
         <v>86979</v>
@@ -9818,10 +9820,10 @@
         <v>20170517</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E125">
         <v>86983</v>
@@ -9880,10 +9882,10 @@
         <v>20170517</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E126">
         <v>86984</v>
@@ -9942,10 +9944,10 @@
         <v>20170517</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E127">
         <v>86985</v>
@@ -10004,10 +10006,10 @@
         <v>20170517</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E128">
         <v>86986</v>
@@ -10066,10 +10068,10 @@
         <v>20170517</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E129">
         <v>86987</v>
@@ -10128,10 +10130,10 @@
         <v>20170517</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E130">
         <v>86988</v>
@@ -10190,10 +10192,10 @@
         <v>20170320</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E131">
         <v>85541</v>
@@ -10252,10 +10254,10 @@
         <v>20170320</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E132">
         <v>85542</v>
@@ -10314,10 +10316,10 @@
         <v>20170320</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E133">
         <v>85546</v>
@@ -10376,10 +10378,10 @@
         <v>20170320</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E134">
         <v>85547</v>
@@ -10438,10 +10440,10 @@
         <v>20170329</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E135">
         <v>85735</v>
@@ -10500,10 +10502,10 @@
         <v>20170329</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E136">
         <v>85736</v>
@@ -10562,10 +10564,10 @@
         <v>20170329</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E137">
         <v>85737</v>
@@ -10624,10 +10626,10 @@
         <v>20170329</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E138">
         <v>85738</v>
@@ -10686,10 +10688,10 @@
         <v>20170329</v>
       </c>
       <c r="C139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E139">
         <v>85739</v>
@@ -10748,10 +10750,10 @@
         <v>20170329</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E140">
         <v>85740</v>
@@ -10810,10 +10812,10 @@
         <v>20170517</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E141">
         <v>86965</v>
@@ -10872,10 +10874,10 @@
         <v>20170517</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D142" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E142">
         <v>86966</v>
@@ -10934,10 +10936,10 @@
         <v>20170517</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E143">
         <v>86967</v>
@@ -10996,10 +10998,10 @@
         <v>20170517</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D144" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E144">
         <v>86968</v>
@@ -11058,10 +11060,10 @@
         <v>20170517</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E145">
         <v>86969</v>
@@ -11120,10 +11122,10 @@
         <v>20170517</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E146">
         <v>86973</v>
@@ -11182,10 +11184,10 @@
         <v>20170517</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D147" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E147">
         <v>86974</v>
@@ -11244,10 +11246,10 @@
         <v>20170517</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E148">
         <v>86975</v>
@@ -11306,10 +11308,10 @@
         <v>20170522</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E149">
         <v>87253</v>
@@ -11368,10 +11370,10 @@
         <v>20170522</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E150">
         <v>87257</v>
@@ -11430,10 +11432,10 @@
         <v>20170522</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E151">
         <v>87258</v>
@@ -11492,10 +11494,10 @@
         <v>20170522</v>
       </c>
       <c r="C152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E152">
         <v>87259</v>
@@ -11554,10 +11556,10 @@
         <v>20170522</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D153" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E153">
         <v>87260</v>
@@ -11616,10 +11618,10 @@
         <v>20170522</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D154" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E154">
         <v>87261</v>
@@ -11678,10 +11680,10 @@
         <v>20170327</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E155">
         <v>85697</v>
@@ -11740,10 +11742,10 @@
         <v>20170327</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E156">
         <v>85698</v>
@@ -11802,10 +11804,10 @@
         <v>20170327</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E157">
         <v>85702</v>
@@ -11864,10 +11866,10 @@
         <v>20170320</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E158">
         <v>85515</v>
@@ -11926,10 +11928,10 @@
         <v>20170320</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E159">
         <v>85516</v>
@@ -11988,10 +11990,10 @@
         <v>20170320</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D160" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E160">
         <v>85517</v>
@@ -12050,10 +12052,10 @@
         <v>20170320</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E161">
         <v>85518</v>
@@ -12112,10 +12114,10 @@
         <v>20170320</v>
       </c>
       <c r="C162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D162" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E162">
         <v>85519</v>
@@ -12174,10 +12176,10 @@
         <v>20170320</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E163">
         <v>85520</v>
@@ -12236,10 +12238,10 @@
         <v>20170320</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E164">
         <v>85521</v>
@@ -12298,10 +12300,10 @@
         <v>20170320</v>
       </c>
       <c r="C165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E165">
         <v>85522</v>
@@ -12360,10 +12362,10 @@
         <v>20170320</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D166" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E166">
         <v>85526</v>
@@ -12422,10 +12424,10 @@
         <v>20170320</v>
       </c>
       <c r="C167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E167">
         <v>85527</v>
@@ -12484,10 +12486,10 @@
         <v>20170329</v>
       </c>
       <c r="C168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E168">
         <v>85744</v>
@@ -12546,10 +12548,10 @@
         <v>20170329</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E169">
         <v>85745</v>
@@ -12608,10 +12610,10 @@
         <v>20170329</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E170">
         <v>85746</v>
@@ -12670,10 +12672,10 @@
         <v>20170329</v>
       </c>
       <c r="C171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E171">
         <v>85747</v>
@@ -12732,10 +12734,10 @@
         <v>20170329</v>
       </c>
       <c r="C172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E172">
         <v>85748</v>
@@ -12794,10 +12796,10 @@
         <v>20170324</v>
       </c>
       <c r="C173" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" t="s">
         <v>176</v>
-      </c>
-      <c r="D173" t="s">
-        <v>177</v>
       </c>
       <c r="E173">
         <v>85650</v>
@@ -12856,10 +12858,10 @@
         <v>20170324</v>
       </c>
       <c r="C174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E174">
         <v>85651</v>
@@ -12918,10 +12920,10 @@
         <v>20170324</v>
       </c>
       <c r="C175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E175">
         <v>85652</v>
@@ -12980,10 +12982,10 @@
         <v>20170324</v>
       </c>
       <c r="C176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E176">
         <v>85653</v>
@@ -13042,10 +13044,10 @@
         <v>20170324</v>
       </c>
       <c r="C177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E177">
         <v>85654</v>
@@ -13104,10 +13106,10 @@
         <v>20170324</v>
       </c>
       <c r="C178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E178">
         <v>85655</v>
@@ -13166,10 +13168,10 @@
         <v>20170324</v>
       </c>
       <c r="C179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E179">
         <v>85656</v>
@@ -13228,10 +13230,10 @@
         <v>20170324</v>
       </c>
       <c r="C180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E180">
         <v>85657</v>
@@ -13290,10 +13292,10 @@
         <v>20170327</v>
       </c>
       <c r="C181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E181">
         <v>85675</v>
@@ -13352,10 +13354,10 @@
         <v>20170327</v>
       </c>
       <c r="C182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E182">
         <v>85676</v>
@@ -13414,10 +13416,10 @@
         <v>20170327</v>
       </c>
       <c r="C183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E183">
         <v>85677</v>
@@ -13476,10 +13478,10 @@
         <v>20170327</v>
       </c>
       <c r="C184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E184">
         <v>85678</v>
@@ -13538,10 +13540,10 @@
         <v>20170327</v>
       </c>
       <c r="C185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E185">
         <v>85682</v>
@@ -13600,10 +13602,10 @@
         <v>20170327</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E186">
         <v>85683</v>
@@ -13662,10 +13664,10 @@
         <v>20170327</v>
       </c>
       <c r="C187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E187">
         <v>85684</v>
@@ -13724,10 +13726,10 @@
         <v>20170327</v>
       </c>
       <c r="C188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E188">
         <v>85685</v>
@@ -13786,10 +13788,10 @@
         <v>20170327</v>
       </c>
       <c r="C189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E189">
         <v>85686</v>
@@ -13848,10 +13850,10 @@
         <v>20170327</v>
       </c>
       <c r="C190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E190">
         <v>85687</v>
@@ -13910,10 +13912,10 @@
         <v>20170327</v>
       </c>
       <c r="C191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E191">
         <v>85688</v>
@@ -13972,10 +13974,10 @@
         <v>20170327</v>
       </c>
       <c r="C192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E192">
         <v>85692</v>
@@ -14034,10 +14036,10 @@
         <v>20170327</v>
       </c>
       <c r="C193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E193">
         <v>85693</v>
@@ -14096,10 +14098,10 @@
         <v>20170327</v>
       </c>
       <c r="C194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E194">
         <v>85694</v>
@@ -14158,10 +14160,10 @@
         <v>20170327</v>
       </c>
       <c r="C195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D195" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E195">
         <v>85695</v>
@@ -14220,10 +14222,10 @@
         <v>20170327</v>
       </c>
       <c r="C196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E196">
         <v>85696</v>
@@ -14282,10 +14284,10 @@
         <v>20170320</v>
       </c>
       <c r="C197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E197">
         <v>85548</v>
@@ -14344,10 +14346,10 @@
         <v>20170320</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E198">
         <v>85549</v>
@@ -14406,10 +14408,10 @@
         <v>20170320</v>
       </c>
       <c r="C199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E199">
         <v>85550</v>
@@ -14468,10 +14470,10 @@
         <v>20170320</v>
       </c>
       <c r="C200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E200">
         <v>85551</v>
@@ -14530,10 +14532,10 @@
         <v>20170320</v>
       </c>
       <c r="C201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E201">
         <v>85552</v>
@@ -14592,10 +14594,10 @@
         <v>20170320</v>
       </c>
       <c r="C202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E202">
         <v>85553</v>
@@ -14654,10 +14656,10 @@
         <v>20170323</v>
       </c>
       <c r="C203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E203">
         <v>85567</v>
@@ -14666,7 +14668,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="G203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H203">
         <v>155.26300000000001</v>
@@ -14719,10 +14721,10 @@
         <v>20170323</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D204" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E204">
         <v>85568</v>
@@ -14731,7 +14733,7 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="G204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H204">
         <v>182.08500000000001</v>
@@ -14784,10 +14786,10 @@
         <v>20170324</v>
       </c>
       <c r="C205" t="s">
+        <v>208</v>
+      </c>
+      <c r="D205" t="s">
         <v>209</v>
-      </c>
-      <c r="D205" t="s">
-        <v>210</v>
       </c>
       <c r="E205">
         <v>85634</v>
@@ -14846,10 +14848,10 @@
         <v>20170324</v>
       </c>
       <c r="C206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E206">
         <v>85635</v>
@@ -14908,10 +14910,10 @@
         <v>20170324</v>
       </c>
       <c r="C207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E207">
         <v>85636</v>
@@ -14970,10 +14972,10 @@
         <v>20170324</v>
       </c>
       <c r="C208" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E208">
         <v>85640</v>
@@ -15032,10 +15034,10 @@
         <v>20170324</v>
       </c>
       <c r="C209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E209">
         <v>85641</v>
@@ -15094,10 +15096,10 @@
         <v>20170324</v>
       </c>
       <c r="C210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E210">
         <v>85642</v>
@@ -15156,10 +15158,10 @@
         <v>20170324</v>
       </c>
       <c r="C211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E211">
         <v>85643</v>
@@ -15218,10 +15220,10 @@
         <v>20170324</v>
       </c>
       <c r="C212" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E212">
         <v>85644</v>
@@ -15280,10 +15282,10 @@
         <v>20170324</v>
       </c>
       <c r="C213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E213">
         <v>85645</v>
@@ -15342,10 +15344,10 @@
         <v>20170324</v>
       </c>
       <c r="C214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D214" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E214">
         <v>85646</v>
@@ -15404,10 +15406,10 @@
         <v>20170404</v>
       </c>
       <c r="C215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D215" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E215">
         <v>85781</v>
@@ -15466,10 +15468,10 @@
         <v>20170404</v>
       </c>
       <c r="C216" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D216" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E216">
         <v>85782</v>
@@ -15528,10 +15530,10 @@
         <v>20170404</v>
       </c>
       <c r="C217" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D217" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E217">
         <v>85783</v>
@@ -15590,10 +15592,10 @@
         <v>20170404</v>
       </c>
       <c r="C218" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D218" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E218">
         <v>85787</v>
@@ -15652,10 +15654,10 @@
         <v>20170404</v>
       </c>
       <c r="C219" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D219" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E219">
         <v>85788</v>
@@ -15714,10 +15716,10 @@
         <v>20170404</v>
       </c>
       <c r="C220" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D220" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E220">
         <v>85789</v>
@@ -15776,10 +15778,10 @@
         <v>20170410</v>
       </c>
       <c r="C221" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D221" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E221">
         <v>85903</v>
@@ -15838,10 +15840,10 @@
         <v>20170410</v>
       </c>
       <c r="C222" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D222" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E222">
         <v>85907</v>
@@ -15900,10 +15902,10 @@
         <v>20170410</v>
       </c>
       <c r="C223" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D223" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E223">
         <v>85908</v>
@@ -15962,10 +15964,10 @@
         <v>20170410</v>
       </c>
       <c r="C224" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D224" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E224">
         <v>85909</v>
@@ -16024,10 +16026,10 @@
         <v>20170410</v>
       </c>
       <c r="C225" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D225" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E225">
         <v>85910</v>
@@ -16086,10 +16088,10 @@
         <v>20170404</v>
       </c>
       <c r="C226" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D226" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E226">
         <v>85766</v>
@@ -16148,10 +16150,10 @@
         <v>20170406</v>
       </c>
       <c r="C227" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D227" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E227">
         <v>85836</v>
@@ -16210,10 +16212,10 @@
         <v>20170406</v>
       </c>
       <c r="C228" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D228" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E228">
         <v>85837</v>
@@ -16272,10 +16274,10 @@
         <v>20170406</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D229" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E229">
         <v>85838</v>
@@ -16334,10 +16336,10 @@
         <v>20170406</v>
       </c>
       <c r="C230" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D230" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E230">
         <v>85839</v>
@@ -16396,10 +16398,10 @@
         <v>20170406</v>
       </c>
       <c r="C231" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E231">
         <v>85840</v>
@@ -16458,10 +16460,10 @@
         <v>20170406</v>
       </c>
       <c r="C232" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D232" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E232">
         <v>85841</v>
@@ -16520,10 +16522,10 @@
         <v>20170406</v>
       </c>
       <c r="C233" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D233" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E233">
         <v>85845</v>
@@ -16582,10 +16584,10 @@
         <v>20170406</v>
       </c>
       <c r="C234" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D234" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E234">
         <v>85846</v>
@@ -16644,10 +16646,10 @@
         <v>20170406</v>
       </c>
       <c r="C235" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D235" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E235">
         <v>85847</v>
@@ -16706,10 +16708,10 @@
         <v>20170406</v>
       </c>
       <c r="C236" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D236" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E236">
         <v>85848</v>
@@ -16768,10 +16770,10 @@
         <v>20170406</v>
       </c>
       <c r="C237" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D237" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E237">
         <v>85849</v>
@@ -16830,10 +16832,10 @@
         <v>20170406</v>
       </c>
       <c r="C238" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D238" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E238">
         <v>85850</v>
@@ -16892,10 +16894,10 @@
         <v>20170406</v>
       </c>
       <c r="C239" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D239" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E239">
         <v>85851</v>
@@ -16954,10 +16956,10 @@
         <v>20170406</v>
       </c>
       <c r="C240" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D240" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E240">
         <v>85825</v>
@@ -17016,10 +17018,10 @@
         <v>20170406</v>
       </c>
       <c r="C241" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D241" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E241">
         <v>85826</v>
@@ -17078,10 +17080,10 @@
         <v>20170406</v>
       </c>
       <c r="C242" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D242" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E242">
         <v>85827</v>
@@ -17140,10 +17142,10 @@
         <v>20170406</v>
       </c>
       <c r="C243" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D243" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E243">
         <v>85828</v>
@@ -17202,10 +17204,10 @@
         <v>20170406</v>
       </c>
       <c r="C244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D244" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E244">
         <v>85829</v>
@@ -17264,10 +17266,10 @@
         <v>20170406</v>
       </c>
       <c r="C245" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D245" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E245">
         <v>85830</v>
@@ -17326,10 +17328,10 @@
         <v>20170406</v>
       </c>
       <c r="C246" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D246" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E246">
         <v>85831</v>
@@ -17388,10 +17390,10 @@
         <v>20170406</v>
       </c>
       <c r="C247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D247" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E247">
         <v>85835</v>
@@ -17450,10 +17452,10 @@
         <v>20170404</v>
       </c>
       <c r="C248" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D248" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E248">
         <v>85797</v>
@@ -17512,10 +17514,10 @@
         <v>20170404</v>
       </c>
       <c r="C249" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D249" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E249">
         <v>85798</v>
@@ -17574,10 +17576,10 @@
         <v>20170404</v>
       </c>
       <c r="C250" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D250" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E250">
         <v>85799</v>
@@ -17636,10 +17638,10 @@
         <v>20170404</v>
       </c>
       <c r="C251" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D251" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E251">
         <v>85800</v>
@@ -17698,10 +17700,10 @@
         <v>20170404</v>
       </c>
       <c r="C252" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D252" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E252">
         <v>85801</v>
@@ -17760,10 +17762,10 @@
         <v>20170404</v>
       </c>
       <c r="C253" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D253" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E253">
         <v>85802</v>
@@ -17822,10 +17824,10 @@
         <v>20170404</v>
       </c>
       <c r="C254" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D254" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E254">
         <v>85803</v>
@@ -17884,10 +17886,10 @@
         <v>20170404</v>
       </c>
       <c r="C255" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D255" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E255">
         <v>85804</v>
@@ -17946,10 +17948,10 @@
         <v>20170406</v>
       </c>
       <c r="C256" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D256" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E256">
         <v>85824</v>
@@ -18008,10 +18010,10 @@
         <v>20170507</v>
       </c>
       <c r="C257" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D257" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E257">
         <v>86493</v>
@@ -18070,10 +18072,10 @@
         <v>20170507</v>
       </c>
       <c r="C258" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D258" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E258">
         <v>86497</v>
@@ -18132,10 +18134,10 @@
         <v>20170507</v>
       </c>
       <c r="C259" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D259" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E259">
         <v>86498</v>
@@ -18194,10 +18196,10 @@
         <v>20170507</v>
       </c>
       <c r="C260" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D260" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E260">
         <v>86499</v>
@@ -18256,10 +18258,10 @@
         <v>20170507</v>
       </c>
       <c r="C261" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D261" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E261">
         <v>86500</v>
@@ -18318,10 +18320,10 @@
         <v>20170507</v>
       </c>
       <c r="C262" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D262" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E262">
         <v>86501</v>
@@ -18380,10 +18382,10 @@
         <v>20170507</v>
       </c>
       <c r="C263" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D263" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E263">
         <v>86502</v>
@@ -18442,10 +18444,10 @@
         <v>20170507</v>
       </c>
       <c r="C264" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D264" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E264">
         <v>86503</v>
@@ -18504,10 +18506,10 @@
         <v>20170507</v>
       </c>
       <c r="C265" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D265" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E265">
         <v>86507</v>
@@ -18566,10 +18568,10 @@
         <v>20170507</v>
       </c>
       <c r="C266" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D266" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E266">
         <v>86508</v>
@@ -18628,10 +18630,10 @@
         <v>20170507</v>
       </c>
       <c r="C267" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D267" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E267">
         <v>86509</v>
@@ -18690,10 +18692,10 @@
         <v>20170507</v>
       </c>
       <c r="C268" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D268" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E268">
         <v>86510</v>
@@ -18752,10 +18754,10 @@
         <v>20170507</v>
       </c>
       <c r="C269" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D269" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E269">
         <v>86511</v>
@@ -18814,10 +18816,10 @@
         <v>20170507</v>
       </c>
       <c r="C270" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D270" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E270">
         <v>86512</v>
@@ -18876,10 +18878,10 @@
         <v>20170507</v>
       </c>
       <c r="C271" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D271" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E271">
         <v>86513</v>
@@ -18938,10 +18940,10 @@
         <v>20170507</v>
       </c>
       <c r="C272" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D272" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E272">
         <v>86517</v>
@@ -19000,10 +19002,10 @@
         <v>20170507</v>
       </c>
       <c r="C273" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D273" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E273">
         <v>86518</v>
@@ -19062,10 +19064,10 @@
         <v>20170507</v>
       </c>
       <c r="C274" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D274" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E274">
         <v>86519</v>
@@ -19124,10 +19126,10 @@
         <v>20170507</v>
       </c>
       <c r="C275" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D275" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E275">
         <v>86521</v>
@@ -19186,10 +19188,10 @@
         <v>20170507</v>
       </c>
       <c r="C276" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D276" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E276">
         <v>86520</v>
@@ -19248,10 +19250,10 @@
         <v>20170507</v>
       </c>
       <c r="C277" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D277" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E277">
         <v>86522</v>
@@ -19310,10 +19312,10 @@
         <v>20170507</v>
       </c>
       <c r="C278" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D278" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E278">
         <v>86523</v>
@@ -19372,10 +19374,10 @@
         <v>20170507</v>
       </c>
       <c r="C279" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D279" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E279">
         <v>86524</v>
@@ -19434,10 +19436,10 @@
         <v>20170523</v>
       </c>
       <c r="C280" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D280" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E280">
         <v>87288</v>
@@ -19496,10 +19498,10 @@
         <v>20170523</v>
       </c>
       <c r="C281" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D281" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E281">
         <v>87289</v>
@@ -19558,10 +19560,10 @@
         <v>20170523</v>
       </c>
       <c r="C282" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D282" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E282">
         <v>87290</v>
@@ -19620,10 +19622,10 @@
         <v>20170523</v>
       </c>
       <c r="C283" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D283" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E283">
         <v>87291</v>
@@ -19682,10 +19684,10 @@
         <v>20170417</v>
       </c>
       <c r="C284" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D284" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E284">
         <v>86148</v>
@@ -19744,10 +19746,10 @@
         <v>20170417</v>
       </c>
       <c r="C285" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D285" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E285">
         <v>86149</v>
@@ -19806,10 +19808,10 @@
         <v>20170417</v>
       </c>
       <c r="C286" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D286" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E286">
         <v>86150</v>
@@ -19868,10 +19870,10 @@
         <v>20170417</v>
       </c>
       <c r="C287" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D287" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E287">
         <v>86151</v>
@@ -19930,10 +19932,10 @@
         <v>20170417</v>
       </c>
       <c r="C288" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D288" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E288">
         <v>86152</v>
@@ -19992,10 +19994,10 @@
         <v>20170417</v>
       </c>
       <c r="C289" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D289" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E289">
         <v>86153</v>
@@ -20054,10 +20056,10 @@
         <v>20170417</v>
       </c>
       <c r="C290" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D290" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E290">
         <v>86157</v>
@@ -20116,10 +20118,10 @@
         <v>20170417</v>
       </c>
       <c r="C291" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D291" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E291">
         <v>86158</v>
@@ -20178,10 +20180,10 @@
         <v>20170417</v>
       </c>
       <c r="C292" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D292" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E292">
         <v>86159</v>
@@ -20240,10 +20242,10 @@
         <v>20170417</v>
       </c>
       <c r="C293" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D293" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E293">
         <v>86160</v>
@@ -20302,10 +20304,10 @@
         <v>20170417</v>
       </c>
       <c r="C294" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D294" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E294">
         <v>86161</v>
@@ -20364,10 +20366,10 @@
         <v>20170417</v>
       </c>
       <c r="C295" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D295" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E295">
         <v>86162</v>
@@ -20426,10 +20428,10 @@
         <v>20170417</v>
       </c>
       <c r="C296" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D296" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E296">
         <v>86163</v>
@@ -20488,10 +20490,10 @@
         <v>20170417</v>
       </c>
       <c r="C297" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D297" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E297">
         <v>86164</v>
@@ -20550,10 +20552,10 @@
         <v>20170420</v>
       </c>
       <c r="C298" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D298" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E298">
         <v>86178</v>
@@ -20612,10 +20614,10 @@
         <v>20170420</v>
       </c>
       <c r="C299" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D299" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E299">
         <v>86179</v>
@@ -20674,10 +20676,10 @@
         <v>20170420</v>
       </c>
       <c r="C300" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D300" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E300">
         <v>86180</v>
@@ -20736,10 +20738,10 @@
         <v>20170420</v>
       </c>
       <c r="C301" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D301" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E301">
         <v>86205</v>
@@ -20798,10 +20800,10 @@
         <v>20170420</v>
       </c>
       <c r="C302" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D302" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E302">
         <v>86181</v>
@@ -20860,10 +20862,10 @@
         <v>20170420</v>
       </c>
       <c r="C303" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D303" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E303">
         <v>86209</v>
@@ -20922,10 +20924,10 @@
         <v>20170420</v>
       </c>
       <c r="C304" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D304" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E304">
         <v>86182</v>
@@ -20984,10 +20986,10 @@
         <v>20170420</v>
       </c>
       <c r="C305" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D305" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E305">
         <v>86183</v>
@@ -21046,10 +21048,10 @@
         <v>20170420</v>
       </c>
       <c r="C306" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D306" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E306">
         <v>86184</v>
@@ -21108,10 +21110,10 @@
         <v>20170420</v>
       </c>
       <c r="C307" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D307" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E307">
         <v>86185</v>
@@ -21170,10 +21172,10 @@
         <v>20170420</v>
       </c>
       <c r="C308" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D308" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E308">
         <v>86211</v>
@@ -21232,10 +21234,10 @@
         <v>20170420</v>
       </c>
       <c r="C309" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D309" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E309">
         <v>86212</v>
@@ -21294,10 +21296,10 @@
         <v>20170420</v>
       </c>
       <c r="C310" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D310" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E310">
         <v>86213</v>
@@ -21356,10 +21358,10 @@
         <v>20170420</v>
       </c>
       <c r="C311" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D311" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E311">
         <v>86214</v>
@@ -21418,10 +21420,10 @@
         <v>20170420</v>
       </c>
       <c r="C312" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D312" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E312">
         <v>86189</v>
@@ -21480,10 +21482,10 @@
         <v>20170420</v>
       </c>
       <c r="C313" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D313" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E313">
         <v>86215</v>
@@ -21542,10 +21544,10 @@
         <v>20170420</v>
       </c>
       <c r="C314" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D314" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E314">
         <v>86216</v>
@@ -21604,10 +21606,10 @@
         <v>20170420</v>
       </c>
       <c r="C315" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D315" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E315">
         <v>86190</v>
@@ -21666,10 +21668,10 @@
         <v>20170426</v>
       </c>
       <c r="C316" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D316" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E316">
         <v>86278</v>
@@ -21728,10 +21730,10 @@
         <v>20170426</v>
       </c>
       <c r="C317" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D317" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E317">
         <v>86279</v>
@@ -21790,10 +21792,10 @@
         <v>20170426</v>
       </c>
       <c r="C318" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D318" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E318">
         <v>86280</v>
@@ -21852,10 +21854,10 @@
         <v>20170426</v>
       </c>
       <c r="C319" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D319" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E319">
         <v>86281</v>
@@ -21914,10 +21916,10 @@
         <v>20170426</v>
       </c>
       <c r="C320" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D320" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E320">
         <v>86282</v>
@@ -21976,10 +21978,10 @@
         <v>20170426</v>
       </c>
       <c r="C321" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D321" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E321">
         <v>86283</v>
@@ -22038,10 +22040,10 @@
         <v>20170426</v>
       </c>
       <c r="C322" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D322" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E322">
         <v>86284</v>
@@ -22100,10 +22102,10 @@
         <v>20170426</v>
       </c>
       <c r="C323" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D323" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E323">
         <v>86285</v>
@@ -22162,10 +22164,10 @@
         <v>20170426</v>
       </c>
       <c r="C324" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D324" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E324">
         <v>86289</v>
@@ -22224,10 +22226,10 @@
         <v>20170426</v>
       </c>
       <c r="C325" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D325" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E325">
         <v>86290</v>
@@ -22286,10 +22288,10 @@
         <v>20170420</v>
       </c>
       <c r="C326" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D326" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E326">
         <v>86191</v>
@@ -22348,10 +22350,10 @@
         <v>20170426</v>
       </c>
       <c r="C327" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D327" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E327">
         <v>86291</v>
@@ -22410,10 +22412,10 @@
         <v>20170420</v>
       </c>
       <c r="C328" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D328" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E328">
         <v>86192</v>
@@ -22472,10 +22474,10 @@
         <v>20170426</v>
       </c>
       <c r="C329" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D329" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E329">
         <v>86292</v>
@@ -22534,10 +22536,10 @@
         <v>20170426</v>
       </c>
       <c r="C330" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D330" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E330">
         <v>86293</v>
@@ -22596,10 +22598,10 @@
         <v>20170426</v>
       </c>
       <c r="C331" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D331" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E331">
         <v>86294</v>
@@ -22658,10 +22660,10 @@
         <v>20170420</v>
       </c>
       <c r="C332" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D332" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E332">
         <v>86193</v>
@@ -22720,10 +22722,10 @@
         <v>20170426</v>
       </c>
       <c r="C333" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D333" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E333">
         <v>86295</v>
@@ -22782,10 +22784,10 @@
         <v>20170426</v>
       </c>
       <c r="C334" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D334" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E334">
         <v>86299</v>
@@ -22844,10 +22846,10 @@
         <v>20170420</v>
       </c>
       <c r="C335" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D335" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E335">
         <v>86194</v>
@@ -22906,10 +22908,10 @@
         <v>20170426</v>
       </c>
       <c r="C336" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D336" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E336">
         <v>86300</v>
@@ -22968,10 +22970,10 @@
         <v>20170426</v>
       </c>
       <c r="C337" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D337" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E337">
         <v>86301</v>
@@ -23030,10 +23032,10 @@
         <v>20170426</v>
       </c>
       <c r="C338" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D338" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E338">
         <v>86302</v>
@@ -23092,10 +23094,10 @@
         <v>20170426</v>
       </c>
       <c r="C339" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D339" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E339">
         <v>86303</v>
@@ -23154,10 +23156,10 @@
         <v>20170426</v>
       </c>
       <c r="C340" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D340" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E340">
         <v>86304</v>
@@ -23216,10 +23218,10 @@
         <v>20170426</v>
       </c>
       <c r="C341" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D341" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E341">
         <v>86305</v>
@@ -23278,10 +23280,10 @@
         <v>20170426</v>
       </c>
       <c r="C342" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D342" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E342">
         <v>86309</v>
@@ -23340,10 +23342,10 @@
         <v>20170426</v>
       </c>
       <c r="C343" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D343" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E343">
         <v>86310</v>
@@ -23402,10 +23404,10 @@
         <v>20170426</v>
       </c>
       <c r="C344" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D344" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E344">
         <v>86311</v>
@@ -23464,10 +23466,10 @@
         <v>20170426</v>
       </c>
       <c r="C345" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D345" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E345">
         <v>86312</v>
@@ -23526,10 +23528,10 @@
         <v>20170426</v>
       </c>
       <c r="C346" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D346" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E346">
         <v>86313</v>
@@ -23588,10 +23590,10 @@
         <v>20170426</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D347" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E347">
         <v>86314</v>
@@ -23650,10 +23652,10 @@
         <v>20170426</v>
       </c>
       <c r="C348" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D348" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E348">
         <v>86315</v>
@@ -23712,10 +23714,10 @@
         <v>20170426</v>
       </c>
       <c r="C349" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D349" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E349">
         <v>86316</v>
@@ -23774,10 +23776,10 @@
         <v>20170503</v>
       </c>
       <c r="C350" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E350">
         <v>86330</v>
@@ -23836,10 +23838,10 @@
         <v>20170503</v>
       </c>
       <c r="C351" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D351" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E351">
         <v>86331</v>
@@ -23898,10 +23900,10 @@
         <v>20170503</v>
       </c>
       <c r="C352" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D352" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E352">
         <v>86332</v>
@@ -23960,10 +23962,10 @@
         <v>20170503</v>
       </c>
       <c r="C353" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D353" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E353">
         <v>86333</v>
@@ -24022,10 +24024,10 @@
         <v>20170503</v>
       </c>
       <c r="C354" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D354" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E354">
         <v>86334</v>
@@ -24084,10 +24086,10 @@
         <v>20170420</v>
       </c>
       <c r="C355" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D355" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E355">
         <v>86195</v>
@@ -24146,10 +24148,10 @@
         <v>20170503</v>
       </c>
       <c r="C356" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D356" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E356">
         <v>86335</v>
@@ -24208,10 +24210,10 @@
         <v>20170503</v>
       </c>
       <c r="C357" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D357" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E357">
         <v>86336</v>
@@ -24270,10 +24272,10 @@
         <v>20170503</v>
       </c>
       <c r="C358" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D358" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E358">
         <v>86337</v>
@@ -24332,10 +24334,10 @@
         <v>20170503</v>
       </c>
       <c r="C359" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D359" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E359">
         <v>86341</v>
@@ -24394,10 +24396,10 @@
         <v>20170503</v>
       </c>
       <c r="C360" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D360" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E360">
         <v>86342</v>
@@ -24456,10 +24458,10 @@
         <v>20170503</v>
       </c>
       <c r="C361" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D361" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E361">
         <v>86343</v>
@@ -24518,10 +24520,10 @@
         <v>20170503</v>
       </c>
       <c r="C362" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D362" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E362">
         <v>86344</v>
@@ -24580,10 +24582,10 @@
         <v>20170503</v>
       </c>
       <c r="C363" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D363" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E363">
         <v>86345</v>
@@ -24642,10 +24644,10 @@
         <v>20170503</v>
       </c>
       <c r="C364" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D364" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E364">
         <v>86346</v>
@@ -24704,10 +24706,10 @@
         <v>20170503</v>
       </c>
       <c r="C365" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D365" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E365">
         <v>86347</v>
@@ -24766,10 +24768,10 @@
         <v>20170503</v>
       </c>
       <c r="C366" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D366" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E366">
         <v>86351</v>
@@ -24828,10 +24830,10 @@
         <v>20170503</v>
       </c>
       <c r="C367" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D367" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E367">
         <v>86352</v>
@@ -24890,10 +24892,10 @@
         <v>20170503</v>
       </c>
       <c r="C368" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D368" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E368">
         <v>86353</v>
@@ -24952,10 +24954,10 @@
         <v>20170503</v>
       </c>
       <c r="C369" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D369" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E369">
         <v>86354</v>
@@ -25014,10 +25016,10 @@
         <v>20170503</v>
       </c>
       <c r="C370" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D370" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E370">
         <v>86355</v>
@@ -25076,10 +25078,10 @@
         <v>20170503</v>
       </c>
       <c r="C371" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D371" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E371">
         <v>86356</v>
@@ -25138,10 +25140,10 @@
         <v>20170420</v>
       </c>
       <c r="C372" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D372" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E372">
         <v>86199</v>
@@ -25200,10 +25202,10 @@
         <v>20170503</v>
       </c>
       <c r="C373" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D373" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E373">
         <v>86357</v>
@@ -25262,10 +25264,10 @@
         <v>20170503</v>
       </c>
       <c r="C374" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D374" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E374">
         <v>86361</v>
@@ -25324,10 +25326,10 @@
         <v>20170503</v>
       </c>
       <c r="C375" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D375" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E375">
         <v>86362</v>
@@ -25386,10 +25388,10 @@
         <v>20170503</v>
       </c>
       <c r="C376" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D376" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E376">
         <v>86363</v>
@@ -25448,10 +25450,10 @@
         <v>20170503</v>
       </c>
       <c r="C377" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D377" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E377">
         <v>86364</v>
@@ -25510,10 +25512,10 @@
         <v>20170503</v>
       </c>
       <c r="C378" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D378" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E378">
         <v>86365</v>
@@ -25572,10 +25574,10 @@
         <v>20170420</v>
       </c>
       <c r="C379" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D379" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E379">
         <v>86200</v>
@@ -25634,10 +25636,10 @@
         <v>20170503</v>
       </c>
       <c r="C380" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D380" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E380">
         <v>86366</v>
@@ -25696,10 +25698,10 @@
         <v>20170420</v>
       </c>
       <c r="C381" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D381" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E381">
         <v>86201</v>
@@ -25758,10 +25760,10 @@
         <v>20170503</v>
       </c>
       <c r="C382" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D382" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E382">
         <v>86367</v>
@@ -25820,10 +25822,10 @@
         <v>20170420</v>
       </c>
       <c r="C383" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D383" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E383">
         <v>86202</v>
@@ -25882,10 +25884,10 @@
         <v>20170420</v>
       </c>
       <c r="C384" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D384" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E384">
         <v>86203</v>
@@ -25944,10 +25946,10 @@
         <v>20170420</v>
       </c>
       <c r="C385" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D385" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E385">
         <v>86204</v>
@@ -26006,10 +26008,10 @@
         <v>20170503</v>
       </c>
       <c r="C386" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D386" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E386">
         <v>86368</v>
@@ -26068,10 +26070,10 @@
         <v>20170507</v>
       </c>
       <c r="C387" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D387" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E387">
         <v>86486</v>
@@ -26130,10 +26132,10 @@
         <v>20170507</v>
       </c>
       <c r="C388" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D388" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E388">
         <v>86487</v>
@@ -26192,10 +26194,10 @@
         <v>20170507</v>
       </c>
       <c r="C389" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D389" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E389">
         <v>86488</v>
@@ -26254,10 +26256,10 @@
         <v>20170507</v>
       </c>
       <c r="C390" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D390" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E390">
         <v>86489</v>
@@ -26316,10 +26318,10 @@
         <v>20170507</v>
       </c>
       <c r="C391" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D391" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E391">
         <v>86490</v>
@@ -26378,10 +26380,10 @@
         <v>20170507</v>
       </c>
       <c r="C392" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D392" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E392">
         <v>86491</v>
@@ -26440,10 +26442,10 @@
         <v>20170507</v>
       </c>
       <c r="C393" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D393" t="s">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="E393">
         <v>86492</v>
@@ -26502,10 +26504,10 @@
         <v>20170417</v>
       </c>
       <c r="C394" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D394" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E394">
         <v>86139</v>
@@ -26564,10 +26566,10 @@
         <v>20170417</v>
       </c>
       <c r="C395" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D395" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E395">
         <v>86140</v>
@@ -26626,10 +26628,10 @@
         <v>20170417</v>
       </c>
       <c r="C396" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D396" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E396">
         <v>86141</v>
@@ -26688,10 +26690,10 @@
         <v>20170417</v>
       </c>
       <c r="C397" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D397" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E397">
         <v>86142</v>
@@ -26750,10 +26752,10 @@
         <v>20170417</v>
       </c>
       <c r="C398" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D398" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E398">
         <v>86143</v>
@@ -26812,10 +26814,10 @@
         <v>20170417</v>
       </c>
       <c r="C399" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D399" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E399">
         <v>86147</v>
@@ -26874,10 +26876,10 @@
         <v>20170406</v>
       </c>
       <c r="C400" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D400" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E400">
         <v>85855</v>
@@ -26936,10 +26938,10 @@
         <v>20170406</v>
       </c>
       <c r="C401" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D401" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E401">
         <v>85856</v>
@@ -26998,10 +27000,10 @@
         <v>20170406</v>
       </c>
       <c r="C402" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D402" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E402">
         <v>85857</v>
@@ -27060,10 +27062,10 @@
         <v>20170406</v>
       </c>
       <c r="C403" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D403" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E403">
         <v>85858</v>
@@ -27122,10 +27124,10 @@
         <v>20170406</v>
       </c>
       <c r="C404" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D404" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E404">
         <v>85859</v>
@@ -27184,10 +27186,10 @@
         <v>20170406</v>
       </c>
       <c r="C405" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D405" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E405">
         <v>85860</v>
@@ -27246,10 +27248,10 @@
         <v>20170406</v>
       </c>
       <c r="C406" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D406" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E406">
         <v>85861</v>
@@ -27308,10 +27310,10 @@
         <v>20170406</v>
       </c>
       <c r="C407" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D407" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E407">
         <v>85862</v>
@@ -27370,10 +27372,10 @@
         <v>20170410</v>
       </c>
       <c r="C408" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D408" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E408">
         <v>85876</v>
@@ -27432,10 +27434,10 @@
         <v>20170410</v>
       </c>
       <c r="C409" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D409" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E409">
         <v>85877</v>
@@ -27494,10 +27496,10 @@
         <v>20170410</v>
       </c>
       <c r="C410" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D410" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E410">
         <v>85878</v>
@@ -27553,13 +27555,13 @@
         <v>410</v>
       </c>
       <c r="C411" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D411" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G411" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="412" spans="1:21" x14ac:dyDescent="0.25">
@@ -27567,13 +27569,13 @@
         <v>411</v>
       </c>
       <c r="C412" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D412" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G412" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="413" spans="1:21" x14ac:dyDescent="0.25">
@@ -27581,13 +27583,13 @@
         <v>412</v>
       </c>
       <c r="C413" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D413" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G413" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="414" spans="1:21" x14ac:dyDescent="0.25">
@@ -27595,13 +27597,13 @@
         <v>413</v>
       </c>
       <c r="C414" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D414" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G414" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="415" spans="1:21" x14ac:dyDescent="0.25">
@@ -27609,13 +27611,13 @@
         <v>414</v>
       </c>
       <c r="C415" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D415" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G415" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.25">
@@ -27623,13 +27625,13 @@
         <v>415</v>
       </c>
       <c r="C416" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D416" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G416" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.25">
@@ -27637,13 +27639,13 @@
         <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D417" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G417" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.25">
@@ -27654,10 +27656,10 @@
         <v>20170323</v>
       </c>
       <c r="C418" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D418" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E418">
         <v>85569</v>
@@ -27716,10 +27718,10 @@
         <v>20170323</v>
       </c>
       <c r="C419" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D419" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E419">
         <v>85570</v>
@@ -27778,10 +27780,10 @@
         <v>20170323</v>
       </c>
       <c r="C420" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D420" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E420">
         <v>85571</v>
@@ -27840,10 +27842,10 @@
         <v>20170323</v>
       </c>
       <c r="C421" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D421" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E421">
         <v>85572</v>
@@ -27902,10 +27904,10 @@
         <v>20170323</v>
       </c>
       <c r="C422" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D422" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E422">
         <v>85573</v>
@@ -27964,10 +27966,10 @@
         <v>20170323</v>
       </c>
       <c r="C423" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D423" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E423">
         <v>85574</v>
@@ -28026,10 +28028,10 @@
         <v>20170323</v>
       </c>
       <c r="C424" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D424" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E424">
         <v>85578</v>
@@ -28088,10 +28090,10 @@
         <v>20170323</v>
       </c>
       <c r="C425" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D425" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E425">
         <v>85579</v>
@@ -28150,10 +28152,10 @@
         <v>20170323</v>
       </c>
       <c r="C426" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D426" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E426">
         <v>85580</v>
@@ -28212,10 +28214,10 @@
         <v>20170323</v>
       </c>
       <c r="C427" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D427" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E427">
         <v>85581</v>
@@ -28274,10 +28276,10 @@
         <v>20170404</v>
       </c>
       <c r="C428" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D428" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E428">
         <v>85767</v>
@@ -28336,10 +28338,10 @@
         <v>20170404</v>
       </c>
       <c r="C429" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D429" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E429">
         <v>85768</v>
@@ -28398,10 +28400,10 @@
         <v>20170404</v>
       </c>
       <c r="C430" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D430" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E430">
         <v>85769</v>
@@ -28460,10 +28462,10 @@
         <v>20170404</v>
       </c>
       <c r="C431" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D431" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E431">
         <v>85770</v>
@@ -28522,10 +28524,10 @@
         <v>20170404</v>
       </c>
       <c r="C432" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D432" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E432">
         <v>85771</v>
@@ -28584,10 +28586,10 @@
         <v>20170404</v>
       </c>
       <c r="C433" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D433" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E433">
         <v>85772</v>
@@ -28646,10 +28648,10 @@
         <v>20170404</v>
       </c>
       <c r="C434" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D434" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E434">
         <v>85773</v>
@@ -28708,10 +28710,10 @@
         <v>20170404</v>
       </c>
       <c r="C435" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D435" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E435">
         <v>85777</v>
@@ -28770,10 +28772,10 @@
         <v>20170404</v>
       </c>
       <c r="C436" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D436" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E436">
         <v>85778</v>
@@ -28832,10 +28834,10 @@
         <v>20170404</v>
       </c>
       <c r="C437" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D437" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E437">
         <v>85779</v>
@@ -28894,10 +28896,10 @@
         <v>20170404</v>
       </c>
       <c r="C438" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D438" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E438">
         <v>85780</v>
@@ -28956,10 +28958,10 @@
         <v>20170324</v>
       </c>
       <c r="C439" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D439" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E439">
         <v>85621</v>
@@ -28968,7 +28970,7 @@
         <v>0.51</v>
       </c>
       <c r="G439" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H439">
         <v>176.17599999999999</v>
@@ -29021,10 +29023,10 @@
         <v>20170327</v>
       </c>
       <c r="C440" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D440" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E440">
         <v>85672</v>
@@ -29033,7 +29035,7 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="G440" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H440">
         <v>133.762</v>
@@ -29086,10 +29088,10 @@
         <v>20170324</v>
       </c>
       <c r="C441" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D441" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E441">
         <v>85622</v>
@@ -29148,10 +29150,10 @@
         <v>20170324</v>
       </c>
       <c r="C442" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D442" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E442">
         <v>85623</v>
@@ -29210,10 +29212,10 @@
         <v>20170324</v>
       </c>
       <c r="C443" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D443" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E443">
         <v>85624</v>
@@ -29272,10 +29274,10 @@
         <v>20170324</v>
       </c>
       <c r="C444" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D444" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E444">
         <v>85625</v>
@@ -29334,10 +29336,10 @@
         <v>20170324</v>
       </c>
       <c r="C445" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D445" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E445">
         <v>85626</v>
@@ -29396,10 +29398,10 @@
         <v>20170327</v>
       </c>
       <c r="C446" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D446" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E446">
         <v>85673</v>
@@ -29458,10 +29460,10 @@
         <v>20170327</v>
       </c>
       <c r="C447" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D447" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E447">
         <v>85674</v>
@@ -29520,10 +29522,10 @@
         <v>20170324</v>
       </c>
       <c r="C448" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D448" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E448">
         <v>85632</v>
@@ -29582,10 +29584,10 @@
         <v>20170324</v>
       </c>
       <c r="C449" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D449" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E449">
         <v>85633</v>
@@ -29644,10 +29646,10 @@
         <v>20170404</v>
       </c>
       <c r="C450" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D450" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E450">
         <v>85790</v>
@@ -29706,10 +29708,10 @@
         <v>20170404</v>
       </c>
       <c r="C451" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D451" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E451">
         <v>85791</v>
@@ -29768,10 +29770,10 @@
         <v>20170404</v>
       </c>
       <c r="C452" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D452" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E452">
         <v>85792</v>
@@ -29830,10 +29832,10 @@
         <v>20170404</v>
       </c>
       <c r="C453" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D453" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E453">
         <v>85793</v>
@@ -29892,10 +29894,10 @@
         <v>20170410</v>
       </c>
       <c r="C454" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D454" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E454">
         <v>85893</v>
@@ -29954,10 +29956,10 @@
         <v>20170410</v>
       </c>
       <c r="C455" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D455" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E455">
         <v>85897</v>
@@ -30016,10 +30018,10 @@
         <v>20170410</v>
       </c>
       <c r="C456" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D456" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E456">
         <v>85898</v>
@@ -30075,13 +30077,13 @@
         <v>456</v>
       </c>
       <c r="C457" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D457" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G457" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
@@ -30092,10 +30094,10 @@
         <v>20170410</v>
       </c>
       <c r="C458" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D458" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E458">
         <v>85899</v>
@@ -30154,10 +30156,10 @@
         <v>20170410</v>
       </c>
       <c r="C459" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D459" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E459">
         <v>85900</v>
@@ -30216,10 +30218,10 @@
         <v>20170410</v>
       </c>
       <c r="C460" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D460" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E460">
         <v>85901</v>
@@ -30278,10 +30280,10 @@
         <v>20170410</v>
       </c>
       <c r="C461" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D461" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E461">
         <v>85902</v>
@@ -30340,10 +30342,10 @@
         <v>20170410</v>
       </c>
       <c r="C462" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D462" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E462">
         <v>85879</v>
@@ -30402,10 +30404,10 @@
         <v>20170411</v>
       </c>
       <c r="C463" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D463" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E463">
         <v>85934</v>
@@ -30464,10 +30466,10 @@
         <v>20170323</v>
       </c>
       <c r="C464" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D464" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E464">
         <v>85604</v>
@@ -30526,10 +30528,10 @@
         <v>20170323</v>
       </c>
       <c r="C465" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D465" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E465">
         <v>85605</v>
@@ -30588,10 +30590,10 @@
         <v>20170327</v>
       </c>
       <c r="C466" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D466" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E466">
         <v>85671</v>
@@ -30650,10 +30652,10 @@
         <v>20170522</v>
       </c>
       <c r="C467" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D467" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E467">
         <v>87269</v>
@@ -30712,10 +30714,10 @@
         <v>20170522</v>
       </c>
       <c r="C468" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D468" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E468">
         <v>87270</v>
@@ -30774,10 +30776,10 @@
         <v>20170323</v>
       </c>
       <c r="C469" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D469" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E469">
         <v>85598</v>
@@ -30836,10 +30838,10 @@
         <v>20170323</v>
       </c>
       <c r="C470" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D470" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E470">
         <v>85599</v>
@@ -30898,10 +30900,10 @@
         <v>20170323</v>
       </c>
       <c r="C471" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D471" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E471">
         <v>85600</v>
@@ -30960,10 +30962,10 @@
         <v>20170323</v>
       </c>
       <c r="C472" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D472" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E472">
         <v>85601</v>
@@ -31022,10 +31024,10 @@
         <v>20170323</v>
       </c>
       <c r="C473" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D473" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E473">
         <v>85602</v>
@@ -31084,10 +31086,10 @@
         <v>20170323</v>
       </c>
       <c r="C474" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D474" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E474">
         <v>85603</v>
@@ -31146,10 +31148,10 @@
         <v>20170517</v>
       </c>
       <c r="C475" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D475" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E475">
         <v>86998</v>
@@ -31208,10 +31210,10 @@
         <v>20170517</v>
       </c>
       <c r="C476" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D476" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E476">
         <v>86999</v>
@@ -31270,10 +31272,10 @@
         <v>20170411</v>
       </c>
       <c r="C477" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D477" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E477">
         <v>85965</v>
@@ -31329,13 +31331,13 @@
         <v>477</v>
       </c>
       <c r="C478" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D478" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G478" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.25">
@@ -31346,10 +31348,10 @@
         <v>20170517</v>
       </c>
       <c r="C479" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D479" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E479">
         <v>86994</v>
@@ -31408,10 +31410,10 @@
         <v>20170517</v>
       </c>
       <c r="C480" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D480" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E480">
         <v>86995</v>
@@ -31470,10 +31472,10 @@
         <v>20170517</v>
       </c>
       <c r="C481" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D481" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E481">
         <v>87000</v>
@@ -31532,10 +31534,10 @@
         <v>20170523</v>
       </c>
       <c r="C482" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D482" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E482">
         <v>87292</v>
@@ -31594,10 +31596,10 @@
         <v>20170522</v>
       </c>
       <c r="C483" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D483" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E483">
         <v>87272</v>
@@ -31656,10 +31658,10 @@
         <v>20170411</v>
       </c>
       <c r="C484" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D484" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E484">
         <v>85941</v>
@@ -31718,10 +31720,10 @@
         <v>20170411</v>
       </c>
       <c r="C485" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D485" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E485">
         <v>85942</v>
@@ -31780,10 +31782,10 @@
         <v>20170411</v>
       </c>
       <c r="C486" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D486" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E486">
         <v>85943</v>
@@ -31842,10 +31844,10 @@
         <v>20170411</v>
       </c>
       <c r="C487" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D487" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E487">
         <v>85944</v>
@@ -31901,13 +31903,13 @@
         <v>487</v>
       </c>
       <c r="C488" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D488" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G488" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.25">
@@ -31918,10 +31920,10 @@
         <v>20170522</v>
       </c>
       <c r="C489" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D489" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E489">
         <v>87273</v>
@@ -31980,10 +31982,10 @@
         <v>20170411</v>
       </c>
       <c r="C490" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D490" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E490">
         <v>85949</v>
@@ -32042,10 +32044,10 @@
         <v>20170411</v>
       </c>
       <c r="C491" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D491" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E491">
         <v>85950</v>
@@ -32104,10 +32106,10 @@
         <v>20170411</v>
       </c>
       <c r="C492" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D492" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E492">
         <v>85951</v>
@@ -32166,10 +32168,10 @@
         <v>20170411</v>
       </c>
       <c r="C493" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D493" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E493">
         <v>85952</v>
@@ -32228,10 +32230,10 @@
         <v>20170411</v>
       </c>
       <c r="C494" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D494" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E494">
         <v>85953</v>
@@ -32290,10 +32292,10 @@
         <v>20170411</v>
       </c>
       <c r="C495" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D495" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E495">
         <v>85955</v>
@@ -32352,10 +32354,10 @@
         <v>20170411</v>
       </c>
       <c r="C496" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D496" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E496">
         <v>85959</v>
@@ -32414,10 +32416,10 @@
         <v>20170411</v>
       </c>
       <c r="C497" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D497" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E497">
         <v>85960</v>
@@ -32476,10 +32478,10 @@
         <v>20170411</v>
       </c>
       <c r="C498" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D498" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E498">
         <v>85961</v>
@@ -32535,13 +32537,13 @@
         <v>498</v>
       </c>
       <c r="C499" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D499" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G499" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="500" spans="1:21" x14ac:dyDescent="0.25">
@@ -32552,10 +32554,10 @@
         <v>20170411</v>
       </c>
       <c r="C500" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D500" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E500">
         <v>85963</v>
@@ -32614,10 +32616,10 @@
         <v>20170411</v>
       </c>
       <c r="C501" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D501" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E501">
         <v>85964</v>
@@ -32673,13 +32675,13 @@
         <v>501</v>
       </c>
       <c r="C502" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D502" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G502" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.25">
@@ -32687,13 +32689,13 @@
         <v>502</v>
       </c>
       <c r="C503" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D503" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G503" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.25">
@@ -32704,10 +32706,10 @@
         <v>20170411</v>
       </c>
       <c r="C504" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D504" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E504">
         <v>85966</v>
@@ -32766,10 +32768,10 @@
         <v>20170417</v>
       </c>
       <c r="C505" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D505" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E505">
         <v>86126</v>
@@ -32828,10 +32830,10 @@
         <v>20170417</v>
       </c>
       <c r="C506" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D506" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E506">
         <v>86127</v>
@@ -32890,10 +32892,10 @@
         <v>20170417</v>
       </c>
       <c r="C507" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D507" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E507">
         <v>86129</v>
@@ -32952,10 +32954,10 @@
         <v>20170417</v>
       </c>
       <c r="C508" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D508" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E508">
         <v>86130</v>
@@ -33014,10 +33016,10 @@
         <v>20170417</v>
       </c>
       <c r="C509" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D509" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E509">
         <v>86131</v>
@@ -33076,10 +33078,10 @@
         <v>20170517</v>
       </c>
       <c r="C510" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D510" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E510">
         <v>86996</v>
@@ -33138,10 +33140,10 @@
         <v>20170517</v>
       </c>
       <c r="C511" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D511" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E511">
         <v>86997</v>
@@ -33200,10 +33202,10 @@
         <v>20170420</v>
       </c>
       <c r="C512" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D512" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E512">
         <v>86210</v>
@@ -33262,10 +33264,10 @@
         <v>20170523</v>
       </c>
       <c r="C513" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D513" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E513">
         <v>87293</v>
@@ -33324,10 +33326,10 @@
         <v>20170411</v>
       </c>
       <c r="C514" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D514" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E514">
         <v>85935</v>
@@ -33386,10 +33388,10 @@
         <v>20170411</v>
       </c>
       <c r="C515" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D515" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E515">
         <v>85939</v>
@@ -33448,10 +33450,10 @@
         <v>20170411</v>
       </c>
       <c r="C516" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D516" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E516">
         <v>85940</v>
@@ -33510,10 +33512,10 @@
         <v>20170411</v>
       </c>
       <c r="C517" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D517" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E517">
         <v>85945</v>
@@ -33572,10 +33574,10 @@
         <v>20170522</v>
       </c>
       <c r="C518" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D518" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E518">
         <v>87274</v>
@@ -33634,10 +33636,10 @@
         <v>20170411</v>
       </c>
       <c r="C519" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D519" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E519">
         <v>85954</v>
@@ -33696,10 +33698,10 @@
         <v>20170411</v>
       </c>
       <c r="C520" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D520" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E520">
         <v>85962</v>
@@ -33758,10 +33760,10 @@
         <v>20170417</v>
       </c>
       <c r="C521" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D521" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E521">
         <v>86128</v>
@@ -33820,10 +33822,10 @@
         <v>20170417</v>
       </c>
       <c r="C522" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D522" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E522">
         <v>86132</v>
@@ -33882,10 +33884,10 @@
         <v>20170417</v>
       </c>
       <c r="C523" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D523" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E523">
         <v>86133</v>
@@ -33941,13 +33943,13 @@
         <v>523</v>
       </c>
       <c r="C524" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D524" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G524" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="525" spans="1:21" x14ac:dyDescent="0.25">
@@ -33958,10 +33960,10 @@
         <v>20170522</v>
       </c>
       <c r="C525" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D525" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E525">
         <v>87271</v>
@@ -34017,13 +34019,13 @@
         <v>525</v>
       </c>
       <c r="C526" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D526" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G526" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="527" spans="1:21" x14ac:dyDescent="0.25">
@@ -34034,10 +34036,10 @@
         <v>20170417</v>
       </c>
       <c r="C527" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D527" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E527">
         <v>86137</v>
@@ -34093,13 +34095,13 @@
         <v>527</v>
       </c>
       <c r="C528" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D528" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G528" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="529" spans="1:21" x14ac:dyDescent="0.25">
@@ -34110,10 +34112,10 @@
         <v>20170417</v>
       </c>
       <c r="C529" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D529" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E529">
         <v>86138</v>
@@ -34172,10 +34174,10 @@
         <v>20170323</v>
       </c>
       <c r="C530" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D530" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E530">
         <v>85582</v>
@@ -34234,10 +34236,10 @@
         <v>20170323</v>
       </c>
       <c r="C531" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D531" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E531">
         <v>85583</v>
@@ -34296,10 +34298,10 @@
         <v>20170323</v>
       </c>
       <c r="C532" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D532" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E532">
         <v>85584</v>
@@ -34358,10 +34360,10 @@
         <v>20170329</v>
       </c>
       <c r="C533" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D533" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E533">
         <v>85749</v>
@@ -34420,10 +34422,10 @@
         <v>20170329</v>
       </c>
       <c r="C534" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D534" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E534">
         <v>85750</v>
@@ -34482,10 +34484,10 @@
         <v>20170323</v>
       </c>
       <c r="C535" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D535" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E535">
         <v>85590</v>
@@ -34544,10 +34546,10 @@
         <v>20170323</v>
       </c>
       <c r="C536" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D536" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E536">
         <v>85591</v>
@@ -34606,10 +34608,10 @@
         <v>20170323</v>
       </c>
       <c r="C537" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D537" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E537">
         <v>85592</v>
@@ -34668,10 +34670,10 @@
         <v>20170323</v>
       </c>
       <c r="C538" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D538" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E538">
         <v>85593</v>
@@ -34730,10 +34732,10 @@
         <v>20170323</v>
       </c>
       <c r="C539" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D539" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E539">
         <v>85594</v>
@@ -34789,13 +34791,13 @@
         <v>539</v>
       </c>
       <c r="C540" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D540" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G540" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="541" spans="1:21" x14ac:dyDescent="0.25">
@@ -34806,10 +34808,10 @@
         <v>20170410</v>
       </c>
       <c r="C541" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D541" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E541">
         <v>85880</v>
@@ -34868,10 +34870,10 @@
         <v>20170410</v>
       </c>
       <c r="C542" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D542" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E542">
         <v>85881</v>
@@ -34930,10 +34932,10 @@
         <v>20170410</v>
       </c>
       <c r="C543" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D543" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E543">
         <v>85882</v>
@@ -34992,10 +34994,10 @@
         <v>20170410</v>
       </c>
       <c r="C544" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D544" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E544">
         <v>85883</v>
@@ -35054,10 +35056,10 @@
         <v>20170410</v>
       </c>
       <c r="C545" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D545" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E545">
         <v>85887</v>
@@ -35116,10 +35118,10 @@
         <v>20170410</v>
       </c>
       <c r="C546" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D546" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E546">
         <v>85888</v>
@@ -35178,10 +35180,10 @@
         <v>20170410</v>
       </c>
       <c r="C547" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D547" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E547">
         <v>85889</v>
@@ -35240,10 +35242,10 @@
         <v>20170410</v>
       </c>
       <c r="C548" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D548" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E548">
         <v>85890</v>
@@ -35302,10 +35304,10 @@
         <v>20170410</v>
       </c>
       <c r="C549" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D549" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E549">
         <v>85891</v>
@@ -35364,10 +35366,10 @@
         <v>20170410</v>
       </c>
       <c r="C550" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D550" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="E550">
         <v>85892</v>
@@ -35423,13 +35425,13 @@
         <v>550</v>
       </c>
       <c r="C551" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D551" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G551" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="552" spans="1:21" x14ac:dyDescent="0.25">
@@ -35437,13 +35439,13 @@
         <v>551</v>
       </c>
       <c r="C552" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D552" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G552" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="553" spans="1:21" x14ac:dyDescent="0.25">
@@ -35451,13 +35453,13 @@
         <v>552</v>
       </c>
       <c r="C553" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D553" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G553" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="554" spans="1:21" x14ac:dyDescent="0.25">
@@ -35465,13 +35467,13 @@
         <v>553</v>
       </c>
       <c r="C554" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D554" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="G554" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
